--- a/src/test/resources/notes.xlsx
+++ b/src/test/resources/notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15030" windowHeight="6540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,56 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1:O20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>bangalore</t>
+  </si>
+  <si>
+    <t>INOX: Garuda Swagath Mall, Jayanagar</t>
+  </si>
+  <si>
+    <t>07:05 PM</t>
+  </si>
+  <si>
+    <t>Cinepolis: Binnypet Mall</t>
+  </si>
+  <si>
+    <t>06:45 PM</t>
+  </si>
+  <si>
+    <t>INOX: Central, JP Nagar, Mantri Junction</t>
+  </si>
+  <si>
+    <t>INOX: Mantri Square, Malleshwaram</t>
+  </si>
+  <si>
+    <t>Gopalan Cinemas: Bannerghatta Road</t>
+  </si>
+  <si>
+    <t>Cinepolis: Royal Meenakshi Mall</t>
+  </si>
+  <si>
+    <t>03:45 PM</t>
+  </si>
+  <si>
+    <t>Gopalan Cinemas: Arcade Mall, Mysore Road</t>
+  </si>
+  <si>
+    <t>07:15 PM</t>
+  </si>
+  <si>
+    <t>INOX: Galleria Mall, Yelahanka</t>
+  </si>
+  <si>
+    <t>Kino Cinemas: Seegehalli Kadugodi, Bengaluru</t>
+  </si>
+  <si>
+    <t>06:50 PM</t>
   </si>
 </sst>
 </file>
@@ -351,12 +394,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="53.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -365,7 +486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
